--- a/public/template/targets.xlsx
+++ b/public/template/targets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>深圳鹏程 2018年度经营计划表</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>有效对话</t>
+  </si>
+  <si>
+    <t>留联量</t>
   </si>
   <si>
     <t>总预约</t>
@@ -112,8 +115,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -155,6 +158,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -163,6 +247,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -171,133 +295,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -320,48 +323,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,6 +395,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,67 +425,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,49 +479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +569,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -581,11 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,36 +649,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -671,149 +674,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +841,9 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,13 +853,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,15 +1204,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:9">
+    <row r="1" ht="22.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,8 +1224,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" ht="18.75" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1238,9 +1239,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:9">
+      <c r="I2" s="4"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1268,10 +1270,13 @@
       <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:9">
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>80000</v>
@@ -1292,16 +1297,19 @@
       <c r="G4" s="5">
         <v>500</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="8">
+        <v>375</v>
+      </c>
+      <c r="I4" s="5">
         <v>96</v>
       </c>
-      <c r="I4" s="13">
+      <c r="J4" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
+    <row r="5" ht="14.25" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>39000</v>
@@ -1322,16 +1330,19 @@
       <c r="G5" s="5">
         <v>300</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="8">
+        <v>225</v>
+      </c>
+      <c r="I5" s="5">
         <v>50</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:9">
+    <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>120000</v>
@@ -1352,16 +1363,19 @@
       <c r="G6" s="5">
         <v>680</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="8">
+        <v>510</v>
+      </c>
+      <c r="I6" s="5">
         <v>200</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="9">
         <v>170</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:9">
+    <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>130000</v>
@@ -1382,16 +1396,19 @@
       <c r="G7" s="5">
         <v>750</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
+        <v>563</v>
+      </c>
+      <c r="I7" s="5">
         <v>200</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="9">
         <v>185</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:9">
+    <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>130000</v>
@@ -1412,16 +1429,19 @@
       <c r="G8" s="5">
         <v>750</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="8">
+        <v>563</v>
+      </c>
+      <c r="I8" s="5">
         <v>200</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J8" s="9">
         <v>185</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:9">
+    <row r="9" ht="14.25" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <v>180000</v>
@@ -1442,16 +1462,19 @@
       <c r="G9" s="5">
         <v>900</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="8">
+        <v>675</v>
+      </c>
+      <c r="I9" s="5">
         <v>240</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J9" s="9">
         <v>225</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:9">
+    <row r="10" ht="14.25" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>180000</v>
@@ -1472,16 +1495,19 @@
       <c r="G10" s="5">
         <v>900</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="8">
+        <v>675</v>
+      </c>
+      <c r="I10" s="5">
         <v>240</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J10" s="9">
         <v>225</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:9">
+    <row r="11" ht="14.25" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>200000</v>
@@ -1502,16 +1528,19 @@
       <c r="G11" s="5">
         <v>985</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="8">
+        <v>739</v>
+      </c>
+      <c r="I11" s="5">
         <v>260</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J11" s="9">
         <v>250</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:9">
+    <row r="12" ht="14.25" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5">
         <v>110000</v>
@@ -1532,16 +1561,19 @@
       <c r="G12" s="5">
         <v>600</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="8">
+        <v>450</v>
+      </c>
+      <c r="I12" s="5">
         <v>170</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="9">
         <v>155</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:9">
+    <row r="13" ht="14.25" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5">
         <v>120000</v>
@@ -1562,16 +1594,19 @@
       <c r="G13" s="5">
         <v>660</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="8">
+        <v>495</v>
+      </c>
+      <c r="I13" s="5">
         <v>170</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J13" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:9">
+    <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5">
         <v>100000</v>
@@ -1592,16 +1627,19 @@
       <c r="G14" s="5">
         <v>580</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="8">
+        <v>435</v>
+      </c>
+      <c r="I14" s="5">
         <v>165</v>
       </c>
-      <c r="I14" s="13">
+      <c r="J14" s="9">
         <v>150</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:9">
+    <row r="15" ht="14.25" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5">
         <v>100000</v>
@@ -1622,47 +1660,53 @@
       <c r="G15" s="5">
         <v>580</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="8">
+        <v>435</v>
+      </c>
+      <c r="I15" s="5">
         <v>150</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8">
+    <row r="16" ht="14.25" spans="1:10">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9">
         <f>SUM(B4:B15)</f>
         <v>1489000</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>1943</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>7006566.66666667</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>420394</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>9930</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>8185</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
+        <v>6140</v>
+      </c>
+      <c r="I16" s="9">
         <v>2131</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="9">
         <v>1943</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="10" t="s">
-        <v>25</v>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1672,10 +1716,11 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
-        <v>26</v>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1685,10 +1730,11 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10" t="s">
-        <v>27</v>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1698,10 +1744,11 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1711,16 +1758,17 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
